--- a/streams/docs/pldi-2011/smp.xlsx
+++ b/streams/docs/pldi-2011/smp.xlsx
@@ -156,9 +156,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0997604367850245"/>
+          <c:x val="0.132779304709553"/>
           <c:y val="0.102753316377039"/>
-          <c:w val="0.889269177437726"/>
+          <c:w val="0.856250309513198"/>
           <c:h val="0.74016083095996"/>
         </c:manualLayout>
       </c:layout>
@@ -262,11 +262,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="648628728"/>
-        <c:axId val="648627160"/>
+        <c:axId val="639239672"/>
+        <c:axId val="639242856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="648628728"/>
+        <c:axId val="639239672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -282,14 +282,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648627160"/>
+        <c:crossAx val="639242856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="648627160"/>
+        <c:axId val="639242856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22.0"/>
@@ -308,7 +308,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600"/>
-                  <a:t>SMP 16-core Speedup over single core</a:t>
+                  <a:t> 16-core Speedup over single core</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -317,8 +317,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00786163522012578"/>
-              <c:y val="0.123286930640847"/>
+              <c:x val="0.0172955974842767"/>
+              <c:y val="0.0724597035664659"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -334,7 +334,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648628728"/>
+        <c:crossAx val="639239672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4.0"/>
@@ -391,8 +391,8 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -424,12 +424,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.54811</cdr:x>
-      <cdr:y>0.10603</cdr:y>
+      <cdr:x>0.57169</cdr:x>
+      <cdr:y>0.09427</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.60535</cdr:x>
-      <cdr:y>0.16068</cdr:y>
+      <cdr:x>0.62893</cdr:x>
+      <cdr:y>0.14892</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -438,8 +438,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4427224" y="562853"/>
-          <a:ext cx="462276" cy="290130"/>
+          <a:off x="4617694" y="407038"/>
+          <a:ext cx="462339" cy="235978"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1068,7 +1068,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
